--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python project\pearson\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pycharm Project\pearson`s correlation coefficient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB356D0E-0E7D-4F22-9A64-E658DFDAC698}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407EF14F-95AD-4075-8449-AB4C7A337052}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1ADA34EF-5F4A-42B2-A228-EE828C85FACF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25728A84-3EC3-4D6F-946A-FBEDF8379E41}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -453,7 +453,7 @@
     <col min="5" max="5" width="16.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,375 +470,327 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>30</v>
       </c>
       <c r="C2">
-        <v>1.4344000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>7.1722000000000001E-3</v>
+        <v>1</v>
       </c>
       <c r="E2" s="3">
         <v>380</v>
       </c>
-      <c r="G2">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>1.6137450000000001E-2</v>
-      </c>
-      <c r="J2">
-        <v>95</v>
-      </c>
-      <c r="K2">
-        <v>9.5626670000000004E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>30</v>
       </c>
       <c r="C3">
-        <v>1.4344000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>7.1722000000000001E-3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3">
         <v>800</v>
       </c>
-      <c r="G3">
-        <v>45</v>
-      </c>
-      <c r="H3">
-        <v>1.4344000000000001E-2</v>
-      </c>
-      <c r="J3">
-        <v>110</v>
-      </c>
-      <c r="K3">
-        <v>8.1965709999999997E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>2.3333333333333299</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-      <c r="C4">
-        <v>1.4344000000000001E-2</v>
-      </c>
-      <c r="D4">
-        <v>7.1722000000000001E-3</v>
-      </c>
-      <c r="E4" s="3">
-        <v>780</v>
-      </c>
-      <c r="G4">
-        <v>60</v>
-      </c>
-      <c r="H4">
-        <v>1.2551349999999999E-2</v>
-      </c>
-      <c r="J4">
-        <v>135</v>
-      </c>
-      <c r="K4">
-        <v>7.1722000000000001E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>6.4</v>
-      </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>1.4344000000000001E-2</v>
-      </c>
-      <c r="D5">
-        <v>7.1722000000000001E-3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G5">
-        <v>75</v>
-      </c>
-      <c r="H5">
-        <v>1.07583E-2</v>
-      </c>
-      <c r="J5">
-        <v>150</v>
-      </c>
-      <c r="K5">
-        <v>6.3751110000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>2.8333333333333299</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>3.3333333333333299</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>3.8333333333333299</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>4.3333333333333304</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>1.4344000000000001E-2</v>
-      </c>
-      <c r="D6">
-        <v>7.1722000000000001E-3</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>4.8333333333333304</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>5.3333333333333304</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>5.8333333333333304</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>12</v>
-      </c>
-      <c r="B7">
-        <v>30</v>
-      </c>
-      <c r="C7">
-        <v>1.4344000000000001E-2</v>
-      </c>
-      <c r="D7">
-        <v>7.1722000000000001E-3</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>30</v>
-      </c>
-      <c r="C8">
-        <v>1.4344000000000001E-2</v>
-      </c>
-      <c r="D8">
-        <v>7.1722000000000001E-3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>18</v>
-      </c>
-      <c r="B9">
-        <v>30</v>
-      </c>
-      <c r="C9">
-        <v>1.4344000000000001E-2</v>
-      </c>
-      <c r="D9">
-        <v>7.1722000000000001E-3</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>30</v>
-      </c>
-      <c r="C10">
-        <v>1.4344000000000001E-2</v>
-      </c>
-      <c r="D10">
-        <v>7.1722000000000001E-3</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>24</v>
-      </c>
-      <c r="B11">
-        <v>30</v>
-      </c>
-      <c r="C11">
-        <v>1.4344000000000001E-2</v>
-      </c>
-      <c r="D11">
-        <v>7.1722000000000001E-3</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>27</v>
-      </c>
-      <c r="B12">
-        <v>30</v>
-      </c>
-      <c r="C12">
-        <v>1.4344000000000001E-2</v>
-      </c>
-      <c r="D12">
-        <v>7.1722000000000001E-3</v>
-      </c>
-      <c r="E12" s="3">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>5.4</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1.4344000000000001E-2</v>
+        <v>6.3333333333333304</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>6.1</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>20</v>
       </c>
       <c r="C14">
-        <v>1.4344000000000001E-2</v>
+        <v>6.8333333333333304</v>
       </c>
       <c r="D14">
-        <v>7.1722000000000001E-3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>7.1</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>1.4344000000000001E-2</v>
+        <v>7.3333333333333304</v>
       </c>
       <c r="D15">
-        <v>7.1722000000000001E-3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3">
-        <v>1133.3333299999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8</v>
       </c>
       <c r="B16">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>1.4344000000000001E-2</v>
+        <v>7.8333333333333304</v>
       </c>
       <c r="D16">
-        <v>7.1722000000000001E-3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="3">
-        <v>492</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="B17">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>1.4344000000000001E-2</v>
+        <v>8.3333333333333304</v>
       </c>
       <c r="D17">
-        <v>7.1722000000000001E-3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="3">
-        <v>251.33332999999999</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>12.4</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>1.4344000000000001E-2</v>
+        <v>8.8333333333333304</v>
       </c>
       <c r="D18">
-        <v>7.1722000000000001E-3</v>
+        <v>2</v>
       </c>
       <c r="E18" s="3">
-        <v>77</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C19">
-        <v>1.6137450000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>9.5626670000000004E-3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="3">
-        <v>234</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="B20">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>1.6137450000000001E-2</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>8.1965709999999997E-3</v>
+        <v>2</v>
       </c>
       <c r="E20" s="3">
-        <v>193</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -846,64 +798,64 @@
         <v>6.4</v>
       </c>
       <c r="B21">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>1.6137450000000001E-2</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>7.1722000000000001E-3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="3">
-        <v>378</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="B22">
         <v>30</v>
       </c>
       <c r="C22">
-        <v>1.6137450000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>6.3751110000000001E-3</v>
+        <v>2</v>
       </c>
       <c r="E22" s="3">
-        <v>294</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="B23">
         <v>30</v>
       </c>
       <c r="C23">
-        <v>1.4344000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>9.5626670000000004E-3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="3">
-        <v>1248</v>
+        <v>568</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>6.4</v>
+        <v>1.6</v>
       </c>
       <c r="B24">
         <v>30</v>
       </c>
       <c r="C24">
-        <v>1.4344000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>8.1965709999999997E-3</v>
+        <v>2</v>
       </c>
       <c r="E24" s="3">
         <v>965</v>
@@ -911,19 +863,19 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="B25">
         <v>30</v>
       </c>
       <c r="C25">
-        <v>1.4344000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>7.1722000000000001E-3</v>
+        <v>3</v>
       </c>
       <c r="E25" s="3">
-        <v>1362</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -934,13 +886,13 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>1.4344000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>6.3751110000000001E-3</v>
+        <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>1768</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -951,13 +903,13 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>1.2551349999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>9.5626670000000004E-3</v>
+        <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>2411</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -968,13 +920,13 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>1.2551349999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>8.1965709999999997E-3</v>
+        <v>3</v>
       </c>
       <c r="E28" s="3">
-        <v>2631</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -985,13 +937,13 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>1.2551349999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>7.1722000000000001E-3</v>
+        <v>3</v>
       </c>
       <c r="E29" s="3">
-        <v>3256</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1002,13 +954,13 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>1.2551349999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>6.3751110000000001E-3</v>
+        <v>3</v>
       </c>
       <c r="E30" s="3">
-        <v>3311</v>
+        <v>800</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1019,13 +971,13 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>1.07583E-2</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>9.5626670000000004E-3</v>
+        <v>3</v>
       </c>
       <c r="E31" s="3">
-        <v>3537</v>
+        <v>800</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1036,13 +988,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>1.07583E-2</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>8.1965709999999997E-3</v>
+        <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>3579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1053,13 +1005,13 @@
         <v>30</v>
       </c>
       <c r="C33">
-        <v>1.07583E-2</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>7.1722000000000001E-3</v>
+        <v>3</v>
       </c>
       <c r="E33" s="3">
-        <v>4180</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1070,13 +1022,13 @@
         <v>30</v>
       </c>
       <c r="C34">
-        <v>1.07583E-2</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>6.3751110000000001E-3</v>
+        <v>3</v>
       </c>
       <c r="E34" s="3">
-        <v>4380</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
